--- a/biology/Zoologie/Croc-Blanc_2/Croc-Blanc_2.xlsx
+++ b/biology/Zoologie/Croc-Blanc_2/Croc-Blanc_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croc-Blanc 2 : Le Mythe du loup blanc (White Fang 2: Myth of the White Wolf) est un film américain réalisé par Ken Olin, sorti en 1994. C'est la suite du film Croc-Blanc sorti en 1991.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Casey (Scott Bairstow) a repris la concession de son ami Jack Conroy, ce dernier étant rentré à San Francisco. Un jour, alors qu'il devait ramener sa production d'or à Dawson City, il est emporté par le courant de la rivière et est sauvé et recueilli par une tribu d'indiens qui ont besoin de son aide. En effet, ils ont eu une vision de Croc-Blanc trouvant le troupeau de caribous dans les montagnes, les sauvant de la famine. D'abord réticent, Henry, accompagné du loup Croc-Blanc, les aidera, et découvrira en même temps la machination menée par le révérend Leland Drury (Alfred Molina), ainsi que l'amour auprès d'une Indienne. De son côté, Croc-Blanc ressent l'appel de la forêt où il y trouve une communauté de loup dont il se rapproche.
 </t>
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, cette fiche technique est établie à partir d'IMDb[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, cette fiche technique est établie à partir d'IMDb
 Titre original : White Fang 2: Myth of the White Wolf
 Titre français : Croc-Blanc 2 : Le Mythe du loup blanc
 Autre titre français : Les Nouvelles aventures de Croc-Blanc
@@ -607,7 +623,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scott Bairstow (VQ: Joël Legendre) : Henry Casey
 Charmaine Craig (VF : Nathalie Régnier ; VQ: Geneviève De Rocray) : Lily Joseph
@@ -622,7 +640,7 @@
 Reynold Russ : Leon
 Ethan Hawke (VQ: Sébastien Ventura) : Jack Conroy (caméo non crédité)
 Animaux
-Jed : Croc-Blanc[2]</t>
+Jed : Croc-Blanc</t>
         </is>
       </c>
     </row>
@@ -650,50 +668,53 @@
           <t>Sorties internationales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, les informations suivantes sont issues de l'IMDb[1]
-Sorties cinéma
-États-Unis : 15 avril 1994
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les informations suivantes sont issues de l'IMDb
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Croc-Blanc_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croc-Blanc_2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sorties internationales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sorties cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>États-Unis : 15 avril 1994
 Espagne : 26 août 1994
 Suède : 30 septembre 1994
 Allemagne : 13 octobre 1994
 France : 19 octobre 1994
-Argentine : 19 janvier 1995
-Sorties directement en vidéo
-Japon : 17 février 1995
-Hongrie : 23 mars 1995
-Royaume-Uni : juillet 1995</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Croc-Blanc_2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croc-Blanc_2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Recettes aux États-Unis : 8 878 839 $ (USD)[1]</t>
+Argentine : 19 janvier 1995</t>
         </is>
       </c>
     </row>
@@ -718,10 +739,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Sorties internationales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sorties directement en vidéo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Japon : 17 février 1995
+Hongrie : 23 mars 1995
+Royaume-Uni : juillet 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Croc-Blanc_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croc-Blanc_2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Recettes aux États-Unis : 8 878 839 $ (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Croc-Blanc_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croc-Blanc_2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Une erreur apparait au début du film. À la fin du générique de début, apparait l'inscription « Alaska 1906 », alors que l'histoire se déroule au Klondike dans le Yukon au Canada.</t>
         </is>
